--- a/ProjeHaftalıkPlan.xlsx
+++ b/ProjeHaftalıkPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\GitHub\BMG_IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0CE0CD-2B8F-4D45-89DE-26DC14E37167}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5CC323-56DF-4160-98D9-4F4F37CF404C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2910" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Okul" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="68">
   <si>
     <t>Adım</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>FONKSİYON</t>
+  </si>
+  <si>
+    <t>TOPLAM</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -521,6 +524,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1150,9 +1156,11 @@
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="G10" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
